--- a/result_file.xlsx
+++ b/result_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>course_name</t>
   </si>
@@ -34,82 +34,64 @@
     <t>course_url</t>
   </si>
   <si>
-    <t>Healthcare Marketplace</t>
+    <t>C程序设计进阶</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Started Aug 21</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course 2 of 7 in the 程序设计与算法 Specialization </t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/c-chengxu-sheji</t>
+  </si>
+  <si>
+    <t>Business English for Cross-cultural Communication</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>Started Aug 21</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course 1 of 5 in the Healthcare Marketplace Specialization </t>
-  </si>
-  <si>
-    <t>https://www.coursera.org/learn/healthcare-marketplace</t>
-  </si>
-  <si>
-    <t>Regression Models</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course 7 of 10 in the Data Science Specialization </t>
-  </si>
-  <si>
-    <t>https://www.coursera.org/learn/regression-models</t>
-  </si>
-  <si>
-    <t>Введение в системное проектирование</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>Starts Aug 28</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>Beginner</t>
-  </si>
-  <si>
-    <t>https://www.coursera.org/learn/systems-engineering-2</t>
-  </si>
-  <si>
-    <t>Beneficios y características de las redes sociales más significativas</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
     <t>Starts Sep 04</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course 2 of 5 in the Marketing con Redes Sociales Specialization </t>
-  </si>
-  <si>
-    <t>https://www.coursera.org/learn/redes-sociales-caracteristicas</t>
-  </si>
-  <si>
-    <t>La gestión en la empresa familiar</t>
-  </si>
-  <si>
-    <t>Starts Sep 11</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>https://www.coursera.org/learn/gestion-empresa-familiar</t>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course 4 of 5 in the Business English for Non-Native Speakers Specialization </t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/cross-cultural-communication-business</t>
+  </si>
+  <si>
+    <t>Psychological First Aid</t>
+  </si>
+  <si>
+    <t>English, Subtitles: Spanish, Russian, Ukrainian</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/psychological-first-aid</t>
+  </si>
+  <si>
+    <t>Sports and Society</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/sports-society</t>
+  </si>
+  <si>
+    <t>Foundations of Business Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course 1 of 5 in the Business Strategy Specialization </t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/uva-darden-foundations-business-strategy</t>
   </si>
 </sst>
 </file>
@@ -497,79 +479,79 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
